--- a/microretailer_mit_lift_lab.xlsx
+++ b/microretailer_mit_lift_lab.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F73F8E-CF39-4473-A04A-8EA0414C3CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{41F73F8E-CF39-4473-A04A-8EA0414C3CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{424CDAF3-6E7E-4064-907B-9CB22B838BDE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="micro-retailer_-_mit_lift_lab" sheetId="1" r:id="rId1"/>
@@ -4273,14 +4273,21 @@
       <sz val="11"/>
       <color rgb="FF0000D4"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4295,9 +4302,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4639,9 +4647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
+      <selection sqref="A1:DB1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -4700,7 +4710,7 @@
     <col min="106" max="106" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4803,7 +4813,7 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" t="s">
@@ -4842,10 +4852,10 @@
       <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AX1" t="s">
@@ -4947,10 +4957,10 @@
       <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="2" t="s">
         <v>83</v>
       </c>
       <c r="CG1" t="s">
@@ -4959,7 +4969,7 @@
       <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="2" t="s">
         <v>86</v>
       </c>
       <c r="CJ1" t="s">
@@ -4971,7 +4981,7 @@
       <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="2" t="s">
         <v>90</v>
       </c>
       <c r="CN1" t="s">
@@ -5004,7 +5014,7 @@
       <c r="CW1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="CY1" t="s">
@@ -5020,7 +5030,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -5154,7 +5164,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -5425,7 +5435,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -5559,7 +5569,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -5827,7 +5837,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -5991,7 +6001,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6143,7 +6153,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -6292,7 +6302,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -6429,7 +6439,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -6656,7 +6666,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -6904,7 +6914,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -7131,7 +7141,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -7355,7 +7365,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>289</v>
       </c>
@@ -7564,7 +7574,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -7797,7 +7807,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>307</v>
       </c>
@@ -8054,7 +8064,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>325</v>
       </c>
@@ -8308,7 +8318,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>337</v>
       </c>
@@ -8484,7 +8494,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>343</v>
       </c>
@@ -8681,7 +8691,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>355</v>
       </c>
@@ -8911,7 +8921,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>370</v>
       </c>
@@ -8970,7 +8980,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>375</v>
       </c>
@@ -9029,7 +9039,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>380</v>
       </c>
@@ -9085,7 +9095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>383</v>
       </c>
@@ -9144,7 +9154,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>388</v>
       </c>
@@ -9311,7 +9321,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>396</v>
       </c>
@@ -9370,7 +9380,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>400</v>
       </c>
@@ -9429,7 +9439,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -9488,7 +9498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>408</v>
       </c>
@@ -9547,7 +9557,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>411</v>
       </c>
@@ -9606,7 +9616,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>416</v>
       </c>
@@ -9665,7 +9675,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>419</v>
       </c>
@@ -9724,7 +9734,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>423</v>
       </c>
@@ -9783,7 +9793,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>426</v>
       </c>
@@ -10037,7 +10047,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>445</v>
       </c>
@@ -10201,7 +10211,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>454</v>
       </c>
@@ -10434,7 +10444,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="39" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>464</v>
       </c>
@@ -10664,7 +10674,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>474</v>
       </c>
@@ -10822,7 +10832,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="41" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>487</v>
       </c>
@@ -11046,7 +11056,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>498</v>
       </c>
@@ -11279,7 +11289,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>510</v>
       </c>
@@ -11530,7 +11540,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="44" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>524</v>
       </c>
@@ -11772,7 +11782,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="45" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>537</v>
       </c>
@@ -11993,7 +12003,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>546</v>
       </c>
@@ -12217,7 +12227,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>553</v>
       </c>
@@ -12441,7 +12451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>559</v>
       </c>
@@ -12500,7 +12510,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>565</v>
       </c>
@@ -12754,7 +12764,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="50" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>578</v>
       </c>
@@ -13023,7 +13033,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="51" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>592</v>
       </c>
@@ -13082,7 +13092,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>597</v>
       </c>
@@ -13315,7 +13325,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>606</v>
       </c>
@@ -13566,7 +13576,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>614</v>
       </c>
@@ -13625,7 +13635,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>619</v>
       </c>
@@ -13813,7 +13823,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>631</v>
       </c>
@@ -13875,7 +13885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>636</v>
       </c>
@@ -14096,7 +14106,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>644</v>
       </c>
@@ -14155,7 +14165,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>649</v>
       </c>
@@ -14271,7 +14281,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>655</v>
       </c>
@@ -14438,7 +14448,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>666</v>
       </c>
@@ -14602,7 +14612,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="62" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>675</v>
       </c>
@@ -14757,7 +14767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>684</v>
       </c>
@@ -14816,7 +14826,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>688</v>
       </c>
@@ -14875,7 +14885,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>693</v>
       </c>
@@ -15060,7 +15070,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="66" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>704</v>
       </c>
@@ -15119,7 +15129,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>710</v>
       </c>
@@ -15346,7 +15356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>722</v>
       </c>
@@ -15573,7 +15583,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>730</v>
       </c>
@@ -15818,7 +15828,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="70" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>741</v>
       </c>
@@ -16057,7 +16067,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>751</v>
       </c>
@@ -16191,7 +16201,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>757</v>
       </c>
@@ -16430,7 +16440,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>765</v>
       </c>
@@ -16591,7 +16601,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>775</v>
       </c>
@@ -16770,7 +16780,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="75" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>785</v>
       </c>
@@ -17024,7 +17034,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="76" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>800</v>
       </c>
@@ -17251,7 +17261,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="77" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>810</v>
       </c>
@@ -17487,7 +17497,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="78" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>820</v>
       </c>
@@ -17753,7 +17763,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="79" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>834</v>
       </c>
@@ -18010,7 +18020,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="80" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>846</v>
       </c>
@@ -18237,7 +18247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>853</v>
       </c>
@@ -18485,7 +18495,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="82" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>863</v>
       </c>
@@ -18727,7 +18737,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="83" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>876</v>
       </c>
@@ -18786,7 +18796,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>881</v>
       </c>
@@ -18845,7 +18855,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>884</v>
       </c>
@@ -19048,7 +19058,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="86" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>895</v>
       </c>
@@ -19107,7 +19117,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>900</v>
       </c>
@@ -19166,7 +19176,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>904</v>
       </c>
@@ -19387,7 +19397,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="89" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>913</v>
       </c>
@@ -19446,7 +19456,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>917</v>
       </c>
@@ -19505,7 +19515,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>921</v>
       </c>
@@ -19561,7 +19571,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>926</v>
       </c>
@@ -19620,7 +19630,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>929</v>
       </c>
@@ -19679,7 +19689,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>934</v>
       </c>
@@ -19738,7 +19748,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>937</v>
       </c>
@@ -19920,7 +19930,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>941</v>
       </c>
@@ -20153,7 +20163,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>946</v>
       </c>
@@ -20215,7 +20225,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>950</v>
       </c>
@@ -20418,7 +20428,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>956</v>
       </c>
@@ -20477,7 +20487,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>960</v>
       </c>
@@ -20536,7 +20546,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>964</v>
       </c>
@@ -20631,7 +20641,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>970</v>
       </c>
@@ -20690,7 +20700,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>976</v>
       </c>
@@ -20749,7 +20759,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>979</v>
       </c>
@@ -20808,7 +20818,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>984</v>
       </c>
@@ -20909,7 +20919,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="106" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>990</v>
       </c>
@@ -20968,7 +20978,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>995</v>
       </c>
@@ -21105,7 +21115,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1001</v>
       </c>
@@ -21335,7 +21345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1011</v>
       </c>
@@ -21571,7 +21581,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="110" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1025</v>
       </c>
@@ -21816,7 +21826,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1030</v>
       </c>
@@ -21875,7 +21885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1035</v>
       </c>
@@ -21934,7 +21944,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1041</v>
       </c>
@@ -21993,7 +22003,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1045</v>
       </c>
@@ -22070,7 +22080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1052</v>
       </c>
@@ -22303,7 +22313,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="116" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1062</v>
       </c>
@@ -22362,7 +22372,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1067</v>
       </c>
@@ -22421,7 +22431,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1070</v>
       </c>
@@ -22480,7 +22490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1074</v>
       </c>
@@ -22581,7 +22591,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1080</v>
       </c>
@@ -22805,7 +22815,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1085</v>
       </c>
@@ -23047,7 +23057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1091</v>
       </c>
@@ -23106,7 +23116,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1095</v>
       </c>
@@ -23165,7 +23175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1099</v>
       </c>
@@ -23392,7 +23402,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1107</v>
       </c>
@@ -23628,7 +23638,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="126" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1118</v>
       </c>
@@ -23858,7 +23868,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1124</v>
       </c>
@@ -23947,7 +23957,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1130</v>
       </c>
@@ -24045,7 +24055,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1134</v>
       </c>
@@ -24137,7 +24147,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1139</v>
       </c>
@@ -24235,7 +24245,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1143</v>
       </c>
@@ -24294,7 +24304,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1147</v>
       </c>
@@ -24356,7 +24366,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="133" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1152</v>
       </c>
@@ -24502,7 +24512,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="134" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1157</v>
       </c>
@@ -24735,7 +24745,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1163</v>
       </c>
@@ -24974,7 +24984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1170</v>
       </c>
@@ -25033,7 +25043,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1174</v>
       </c>
@@ -25131,7 +25141,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="138" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1178</v>
       </c>
@@ -25190,7 +25200,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="139" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1182</v>
       </c>
@@ -25330,7 +25340,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1187</v>
       </c>
@@ -25389,7 +25399,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1191</v>
       </c>
@@ -25448,7 +25458,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1196</v>
       </c>
@@ -25510,7 +25520,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1200</v>
       </c>
@@ -25572,7 +25582,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1204</v>
       </c>
@@ -25703,7 +25713,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1212</v>
       </c>
@@ -25852,7 +25862,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1217</v>
       </c>
@@ -25971,7 +25981,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1224</v>
       </c>
@@ -26165,7 +26175,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="148" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1230</v>
       </c>
@@ -26305,7 +26315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="149" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1235</v>
       </c>
@@ -26445,7 +26455,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="150" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1242</v>
       </c>
@@ -26564,7 +26574,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1247</v>
       </c>
@@ -26701,7 +26711,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1253</v>
       </c>
@@ -26808,7 +26818,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1258</v>
       </c>
@@ -27041,7 +27051,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="154" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1268</v>
       </c>
@@ -27280,7 +27290,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="155" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1275</v>
       </c>
@@ -27504,7 +27514,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="156" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1283</v>
       </c>
@@ -27746,7 +27756,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="157" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1292</v>
       </c>
@@ -27973,7 +27983,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="158" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1301</v>
       </c>
@@ -28203,7 +28213,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="159" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1310</v>
       </c>
@@ -28439,7 +28449,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="160" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1317</v>
       </c>
@@ -28687,7 +28697,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="161" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1328</v>
       </c>
@@ -28824,7 +28834,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1332</v>
       </c>
@@ -29054,7 +29064,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="163" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1346</v>
       </c>
@@ -29296,7 +29306,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="164" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1361</v>
       </c>
@@ -29541,7 +29551,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="165" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1372</v>
       </c>
@@ -29600,7 +29610,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1376</v>
       </c>
@@ -29662,7 +29672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="167" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1381</v>
       </c>
@@ -29910,7 +29920,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="168" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1392</v>
       </c>
@@ -29969,7 +29979,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1396</v>
       </c>
@@ -30028,7 +30038,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="170" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1400</v>
       </c>
@@ -30087,7 +30097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="171" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1404</v>
       </c>
@@ -30146,7 +30156,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1408</v>
       </c>
